--- a/report.xlsx
+++ b/report.xlsx
@@ -458,205 +458,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Overdue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>9WM03PYK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>WCAWZ0064571</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1.00E+11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>G2E000214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>7H137673A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>1ABC2DEF345678G</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>456789</t>
+          <t>KUT4-RAG1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>789456</t>
+          <t>000000-1234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Overdue</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>1G2600102219</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9WM03PYK</t>
+          <t>X0XX234XYXYX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WCAWZ0064571</t>
+          <t>78161328</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.00E+11</t>
+          <t>YA27655E</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G2E000214</t>
+          <t>CXL337CE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7H137673A</t>
+          <t>37561001258d20102</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1ABC2DEF345678G</t>
+          <t>145120615593EHB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KUT4-RAG1</t>
+          <t>APM00120701240</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>000000-1234</t>
+          <t>TR2131600860</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1G2600102219</t>
+          <t>1029120</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -942,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>X0XX234XYXYX</t>
+          <t>2348779</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>78161328</t>
+          <t>5673873</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -986,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>YA27655E</t>
+          <t>12348912</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CXL337CE</t>
+          <t>329490</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>37561001258d20102</t>
+          <t>9132870</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>145120615593EHB</t>
+          <t>383455</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>APM00120701240</t>
+          <t>2304832</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TR2131600860</t>
+          <t>2349048A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,7 +1118,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1029120</t>
+          <t>13984023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2348779</t>
+          <t>1.80E+11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1162,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5673873</t>
+          <t>34985CF</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,7 +1184,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12348912</t>
+          <t>1304892</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1206,12 +1206,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>329490</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1228,17 +1228,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9132870</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1250,17 +1250,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>383455</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,29 +1272,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2304832</t>
+          <t>serial_number</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>classified</t>
+          <t>classifcation</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2349048A</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13984023</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1338,17 +1338,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1.80E+11</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Overdue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>34985CF</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1382,7 +1382,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1304892</t>
+          <t>9WM03PYK</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1404,17 +1404,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>WCAWZ0064571</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>delinquent</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1426,17 +1426,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>456789</t>
+          <t>1.00E+11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>delinquent</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>789456</t>
+          <t>G2E000214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>delinquent</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,139 +1470,139 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>7H137673A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1ABC2DEF345678G</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>KUT4-RAG1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>000000-1234</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1G2600102219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>X0XX234XYXYX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>78161328</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>456789</t>
+          <t>YA27655E</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>CXL337CE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9WM03PYK</t>
+          <t>37561001258d20102</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>WCAWZ0064571</t>
+          <t>145120615593EHB</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1712,7 +1712,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1.00E+11</t>
+          <t>APM00120701240</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1734,7 +1734,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>G2E000214</t>
+          <t>TR2131600860</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7H137673A</t>
+          <t>1029120</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1778,7 +1778,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1ABC2DEF345678G</t>
+          <t>2348779</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KUT4-RAG1</t>
+          <t>5673873</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>000000-1234</t>
+          <t>12348912</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1G2600102219</t>
+          <t>329490</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>X0XX234XYXYX</t>
+          <t>9132870</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>78161328</t>
+          <t>383455</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>YA27655E</t>
+          <t>2304832</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CXL337CE</t>
+          <t>2349048A</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1954,7 +1954,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>37561001258d20102</t>
+          <t>13984023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>145120615593EHB</t>
+          <t>1.80E+11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>APM00120701240</t>
+          <t>34985CF</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TR2131600860</t>
+          <t>1304892</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2042,12 +2042,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1029120</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,17 +2064,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2348779</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2086,17 +2086,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5673873</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2108,29 +2108,29 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>12348912</t>
+          <t>serial_number</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>classified</t>
+          <t>classifcation</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>329490</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9132870</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2174,17 +2174,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>383455</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Overdue</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2304832</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2349048A</t>
+          <t>9WM03PYK</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2240,7 +2240,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>13984023</t>
+          <t>WCAWZ0064571</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1.80E+11</t>
+          <t>1.00E+11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>34985CF</t>
+          <t>G2E000214</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2306,7 +2306,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1304892</t>
+          <t>7H137673A</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2328,29 +2328,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1ABC2DEF345678G</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>KUT4-RAG1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>456789</t>
+          <t>000000-1234</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>1G2600102219</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9WM03PYK</t>
+          <t>X0XX234XYXYX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WCAWZ0064571</t>
+          <t>78161328</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1.00E+11</t>
+          <t>YA27655E</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>G2E000214</t>
+          <t>CXL337CE</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7H137673A</t>
+          <t>37561001258d20102</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1ABC2DEF345678G</t>
+          <t>145120615593EHB</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KUT4-RAG1</t>
+          <t>APM00120701240</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>000000-1234</t>
+          <t>TR2131600860</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1G2600102219</t>
+          <t>1029120</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>X0XX234XYXYX</t>
+          <t>2348779</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>78161328</t>
+          <t>5673873</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>YA27655E</t>
+          <t>12348912</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CXL337CE</t>
+          <t>329490</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>37561001258d20102</t>
+          <t>9132870</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>145120615593EHB</t>
+          <t>383455</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,7 +2746,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>APM00120701240</t>
+          <t>2304832</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TR2131600860</t>
+          <t>2349048A</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1029120</t>
+          <t>13984023</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2348779</t>
+          <t>1.80E+11</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2834,7 +2834,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5673873</t>
+          <t>34985CF</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>12348912</t>
+          <t>1304892</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>329490</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2900,17 +2900,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>9132870</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2922,17 +2922,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>383455</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2944,29 +2944,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2304832</t>
+          <t>serial_number</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>classified</t>
+          <t>classifcation</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2349048A</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>13984023</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3010,17 +3010,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.80E+11</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Overdue</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>34985CF</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HDD</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1304892</t>
+          <t>9WM03PYK</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3076,704 +3076,704 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>WCAWZ0064571</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1.00E+11</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>G2E000214</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>7H137673A</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1ABC2DEF345678G</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>KUT4-RAG1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>000000-1234</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1G2600102219</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>X0XX234XYXYX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>78161328</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>YA27655E</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>CXL337CE</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>37561001258d20102</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>145120615593EHB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>APM00120701240</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>TR2131600860</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1029120</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>2348779</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>5673873</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>12348912</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>329490</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>9132870</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>383455</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>2304832</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>2349048A</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>13984023</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1.80E+11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>34985CF</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>1304892</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Assigned</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>456789</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>789456</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>delinquent</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>HDD</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>classifcation</t>
+          <t>classified</t>
         </is>
       </c>
     </row>
